--- a/server/object_detection_classification/results/training_plots/compare_model_results.xlsx
+++ b/server/object_detection_classification/results/training_plots/compare_model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yewji\FYP_20297501\server\object_detection_classification\results\training_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF876942-636B-49BA-BAAE-50A1A644803A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC651D-1E37-4703-874B-E9B886647D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{33AEFEC3-E60E-49AF-B0BA-65316B833714}"/>
+    <workbookView xWindow="10260" yWindow="876" windowWidth="11856" windowHeight="10512" xr2:uid="{33AEFEC3-E60E-49AF-B0BA-65316B833714}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,505 +141,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-MY"/>
-              <a:t>Training</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-MY" baseline="0"/>
-              <a:t> Loss</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-MY"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.6706333776179214E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.93614688981778515"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ResNet50_Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.70409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89790000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93089999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95960000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC37-47C9-97D7-54E70BE539C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MobileNetV2_Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.0070999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0768</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7493000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5585</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4319999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC37-47C9-97D7-54E70BE539C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VGG16_Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.3150999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.42880000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27560000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20810000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16159999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC37-47C9-97D7-54E70BE539C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="897493039"/>
-        <c:axId val="897483439"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="897493039"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="897483439"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="897483439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="897493039"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1123,7 +624,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1607,7 +1108,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2005,6 +1506,463 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="712777231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-MY"/>
+              <a:t>Training Loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1588169188666496E-2"/>
+          <c:y val="0.1786003352984018"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ResNet50_Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD74-40E9-9119-596352CBA032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MobileNetV2_Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0070999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7493000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD74-40E9-9119-596352CBA032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VGG16_Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3150999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16159999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD74-40E9-9119-596352CBA032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="901721295"/>
+        <c:axId val="901715055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="901721295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901715055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="901715055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901721295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3761,7 +3719,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3869,6 +3827,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3879,6 +3842,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3910,6 +3878,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4267,52 +4238,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E98148-113B-0E33-399F-07377FE47D2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4331,7 +4266,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4367,7 +4302,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4392,6 +4327,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F39AA98-7536-E6BA-7FF7-773E0716663F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E94C6E7-0402-0918-F497-A65346A82975}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4711,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8246A6C7-6F4E-4DA2-A71B-6D94FC0583F3}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="K22" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
